--- a/Results.xlsx
+++ b/Results.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\garcezmo\Documents\bench\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{009DB45D-79D3-4E5D-92F1-F3BED85C0ECF}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{322B5BAF-6185-47F1-93A5-5B2BA84B296B}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{CC8172D6-F11B-4012-8DDC-A22EEDDF2DA9}"/>
   </bookViews>
@@ -1346,34 +1346,34 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>149.25</c:v>
+                  <c:v>147.73333333333332</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>0.01</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>304.26666666666665</c:v>
+                  <c:v>301.19333333333333</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>295.13333333333338</c:v>
+                  <c:v>268.63333333333338</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>302.03333333333336</c:v>
+                  <c:v>267.9666666666667</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>294.63333333333333</c:v>
+                  <c:v>267.96666666666664</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>101.31666666666666</c:v>
+                  <c:v>54.466666666666661</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>112.89999999999999</c:v>
+                  <c:v>60.633333333333333</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>100.35666666666667</c:v>
+                  <c:v>47.966666666666661</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>112.87333333333333</c:v>
+                  <c:v>58.5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1453,34 +1453,34 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>5.7999999999999996E-2</c:v>
+                  <c:v>5.6666666666666664E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>121.73333333333333</c:v>
+                  <c:v>121.10000000000001</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>316.65666666666669</c:v>
+                  <c:v>310.63333333333333</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>306.46666666666664</c:v>
+                  <c:v>288.63333333333333</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>304.09999999999997</c:v>
+                  <c:v>268.0333333333333</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>295.96666666666664</c:v>
+                  <c:v>266.46666666666664</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>109.7</c:v>
+                  <c:v>56.199999999999996</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>121.26666666666667</c:v>
+                  <c:v>56.966666666666669</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>100.23333333333333</c:v>
+                  <c:v>46.033333333333339</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>114.26666666666667</c:v>
+                  <c:v>57.79999999999999</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1894,28 +1894,28 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>0.46012269938650308</c:v>
+                  <c:v>0.46481772504924856</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.47436187034108868</c:v>
+                  <c:v>0.52115647102618179</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.46352499724092261</c:v>
+                  <c:v>0.52245304142306248</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.4751668740807784</c:v>
+                  <c:v>0.52245304142306259</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.3818062181279815</c:v>
+                  <c:v>2.5703794369645045</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.2400354295837024</c:v>
+                  <c:v>2.3089609675645959</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1.3950244129272262</c:v>
+                  <c:v>2.9186935371785965</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1.2403283917075187</c:v>
+                  <c:v>2.3931623931623931</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1989,28 +1989,28 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>0.44211922481762578</c:v>
+                  <c:v>0.4506921343491791</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.45681966499891236</c:v>
+                  <c:v>0.48504446240905419</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.46037487668530092</c:v>
+                  <c:v>0.52232309414251965</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.47302624169388446</c:v>
+                  <c:v>0.5253940455341507</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.276207839562443</c:v>
+                  <c:v>2.4911032028469751</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.154480483782298</c:v>
+                  <c:v>2.457577530719719</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1.3967409378117726</c:v>
+                  <c:v>3.0412744388124544</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1.2252042007001167</c:v>
+                  <c:v>2.4221453287197234</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4899,8 +4899,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EB85B533-7834-405E-A377-6210758978D9}">
   <dimension ref="A1:W15"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G37" workbookViewId="0">
-      <selection activeCell="T43" sqref="T43"/>
+    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="A66" sqref="A66:K80"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5019,34 +5019,34 @@
         <v>58.953353</v>
       </c>
       <c r="N3">
-        <v>149.94999999999999</v>
+        <v>148.9</v>
       </c>
       <c r="O3">
         <v>0.01</v>
       </c>
       <c r="P3">
-        <v>306.2</v>
+        <v>301.48</v>
       </c>
       <c r="Q3">
-        <v>297.60000000000002</v>
+        <v>268.39999999999998</v>
       </c>
       <c r="R3">
-        <v>302.10000000000002</v>
+        <v>268</v>
       </c>
       <c r="S3">
-        <v>297.89999999999998</v>
+        <v>268.10000000000002</v>
       </c>
       <c r="T3">
-        <v>100.45</v>
+        <v>54</v>
       </c>
       <c r="U3">
-        <v>111.8</v>
+        <v>61.5</v>
       </c>
       <c r="V3">
-        <v>100.27</v>
+        <v>50.8</v>
       </c>
       <c r="W3">
-        <v>113.22</v>
+        <v>61.6</v>
       </c>
     </row>
     <row r="4" spans="1:23" x14ac:dyDescent="0.3">
@@ -5081,34 +5081,34 @@
         <v>60.757148999999998</v>
       </c>
       <c r="N4">
-        <v>148.9</v>
+        <v>146.1</v>
       </c>
       <c r="O4">
         <v>0.01</v>
       </c>
       <c r="P4">
-        <v>302.89999999999998</v>
+        <v>300.39999999999998</v>
       </c>
       <c r="Q4">
-        <v>294.8</v>
+        <v>269.3</v>
       </c>
       <c r="R4">
-        <v>302</v>
+        <v>267.2</v>
       </c>
       <c r="S4">
-        <v>293</v>
+        <v>268.39999999999998</v>
       </c>
       <c r="T4">
-        <v>102.5</v>
+        <v>55.6</v>
       </c>
       <c r="U4">
-        <v>116.9</v>
+        <v>61.5</v>
       </c>
       <c r="V4">
-        <v>101.8</v>
+        <v>47.3</v>
       </c>
       <c r="W4">
-        <v>113.4</v>
+        <v>57</v>
       </c>
     </row>
     <row r="5" spans="1:23" x14ac:dyDescent="0.3">
@@ -5143,34 +5143,34 @@
         <v>60.594720000000002</v>
       </c>
       <c r="N5">
-        <v>148.9</v>
+        <v>148.19999999999999</v>
       </c>
       <c r="O5">
         <v>0.01</v>
       </c>
       <c r="P5">
-        <v>303.7</v>
+        <v>301.7</v>
       </c>
       <c r="Q5">
-        <v>293</v>
+        <v>268.2</v>
       </c>
       <c r="R5">
-        <v>302</v>
+        <v>268.7</v>
       </c>
       <c r="S5">
-        <v>293</v>
+        <v>267.39999999999998</v>
       </c>
       <c r="T5">
-        <v>101</v>
+        <v>53.8</v>
       </c>
       <c r="U5">
-        <v>110</v>
+        <v>58.9</v>
       </c>
       <c r="V5">
-        <v>99</v>
+        <v>45.8</v>
       </c>
       <c r="W5">
-        <v>112</v>
+        <v>56.9</v>
       </c>
     </row>
     <row r="6" spans="1:23" x14ac:dyDescent="0.3">
@@ -5222,7 +5222,7 @@
       </c>
       <c r="N6">
         <f>AVERAGE(N3:N5)</f>
-        <v>149.25</v>
+        <v>147.73333333333332</v>
       </c>
       <c r="O6">
         <f t="shared" ref="O6:W6" si="1">AVERAGE(O3:O5)</f>
@@ -5230,35 +5230,35 @@
       </c>
       <c r="P6">
         <f t="shared" si="1"/>
-        <v>304.26666666666665</v>
+        <v>301.19333333333333</v>
       </c>
       <c r="Q6">
         <f t="shared" si="1"/>
-        <v>295.13333333333338</v>
+        <v>268.63333333333338</v>
       </c>
       <c r="R6">
         <f t="shared" si="1"/>
-        <v>302.03333333333336</v>
+        <v>267.9666666666667</v>
       </c>
       <c r="S6">
         <f t="shared" si="1"/>
-        <v>294.63333333333333</v>
+        <v>267.96666666666664</v>
       </c>
       <c r="T6">
         <f t="shared" si="1"/>
-        <v>101.31666666666666</v>
+        <v>54.466666666666661</v>
       </c>
       <c r="U6">
         <f t="shared" si="1"/>
-        <v>112.89999999999999</v>
+        <v>60.633333333333333</v>
       </c>
       <c r="V6">
         <f t="shared" si="1"/>
-        <v>100.35666666666667</v>
+        <v>47.966666666666661</v>
       </c>
       <c r="W6">
         <f t="shared" si="1"/>
-        <v>112.87333333333333</v>
+        <v>58.5</v>
       </c>
     </row>
     <row r="7" spans="1:23" x14ac:dyDescent="0.3">
@@ -5302,35 +5302,35 @@
       </c>
       <c r="P7">
         <f t="shared" ref="P7:W7" si="3">140/P6</f>
-        <v>0.46012269938650308</v>
+        <v>0.46481772504924856</v>
       </c>
       <c r="Q7">
         <f t="shared" si="3"/>
-        <v>0.47436187034108868</v>
+        <v>0.52115647102618179</v>
       </c>
       <c r="R7">
         <f t="shared" si="3"/>
-        <v>0.46352499724092261</v>
+        <v>0.52245304142306248</v>
       </c>
       <c r="S7">
         <f t="shared" si="3"/>
-        <v>0.4751668740807784</v>
+        <v>0.52245304142306259</v>
       </c>
       <c r="T7">
         <f t="shared" si="3"/>
-        <v>1.3818062181279815</v>
+        <v>2.5703794369645045</v>
       </c>
       <c r="U7">
         <f t="shared" si="3"/>
-        <v>1.2400354295837024</v>
+        <v>2.3089609675645959</v>
       </c>
       <c r="V7">
         <f t="shared" si="3"/>
-        <v>1.3950244129272262</v>
+        <v>2.9186935371785965</v>
       </c>
       <c r="W7">
         <f t="shared" si="3"/>
-        <v>1.2403283917075187</v>
+        <v>2.3931623931623931</v>
       </c>
     </row>
     <row r="9" spans="1:23" x14ac:dyDescent="0.3">
@@ -5435,34 +5435,34 @@
         <v>61.061413000000002</v>
       </c>
       <c r="N11">
-        <v>5.7000000000000002E-2</v>
+        <v>0.05</v>
       </c>
       <c r="O11">
-        <v>122.2</v>
+        <v>120</v>
       </c>
       <c r="P11">
-        <v>318.27</v>
+        <v>310.10000000000002</v>
       </c>
       <c r="Q11">
-        <v>308.39999999999998</v>
+        <v>289.39999999999998</v>
       </c>
       <c r="R11">
-        <v>300.3</v>
+        <v>270.5</v>
       </c>
       <c r="S11">
-        <v>295.89999999999998</v>
+        <v>266</v>
       </c>
       <c r="T11">
-        <v>110.1</v>
+        <v>57.5</v>
       </c>
       <c r="U11">
-        <v>122.8</v>
+        <v>53.1</v>
       </c>
       <c r="V11">
-        <v>100.7</v>
+        <v>43.1</v>
       </c>
       <c r="W11">
-        <v>114.8</v>
+        <v>59.8</v>
       </c>
     </row>
     <row r="12" spans="1:23" x14ac:dyDescent="0.3">
@@ -5497,34 +5497,34 @@
         <v>61.546219999999998</v>
       </c>
       <c r="N12">
-        <v>5.3999999999999999E-2</v>
+        <v>0.06</v>
       </c>
       <c r="O12">
-        <v>121.5</v>
+        <v>121.8</v>
       </c>
       <c r="P12">
-        <v>315.7</v>
+        <v>311.39999999999998</v>
       </c>
       <c r="Q12">
-        <v>305</v>
+        <v>288.39999999999998</v>
       </c>
       <c r="R12">
-        <v>315</v>
+        <v>267.39999999999998</v>
       </c>
       <c r="S12">
-        <v>295</v>
+        <v>268.5</v>
       </c>
       <c r="T12">
-        <v>109</v>
+        <v>54.6</v>
       </c>
       <c r="U12">
-        <v>121</v>
+        <v>66.7</v>
       </c>
       <c r="V12">
-        <v>100</v>
+        <v>44.7</v>
       </c>
       <c r="W12">
-        <v>114</v>
+        <v>58.4</v>
       </c>
     </row>
     <row r="13" spans="1:23" x14ac:dyDescent="0.3">
@@ -5559,34 +5559,34 @@
         <v>61.274225999999999</v>
       </c>
       <c r="N13">
-        <v>6.3E-2</v>
+        <v>0.06</v>
       </c>
       <c r="O13">
         <v>121.5</v>
       </c>
       <c r="P13">
-        <v>316</v>
+        <v>310.39999999999998</v>
       </c>
       <c r="Q13">
-        <v>306</v>
+        <v>288.10000000000002</v>
       </c>
       <c r="R13">
-        <v>297</v>
+        <v>266.2</v>
       </c>
       <c r="S13">
-        <v>297</v>
+        <v>264.89999999999998</v>
       </c>
       <c r="T13">
-        <v>110</v>
+        <v>56.5</v>
       </c>
       <c r="U13">
-        <v>120</v>
+        <v>51.1</v>
       </c>
       <c r="V13">
-        <v>100</v>
+        <v>50.3</v>
       </c>
       <c r="W13">
-        <v>114</v>
+        <v>55.2</v>
       </c>
     </row>
     <row r="14" spans="1:23" x14ac:dyDescent="0.3">
@@ -5638,43 +5638,43 @@
       </c>
       <c r="N14">
         <f>AVERAGE(N11:N13)</f>
-        <v>5.7999999999999996E-2</v>
+        <v>5.6666666666666664E-2</v>
       </c>
       <c r="O14">
         <f t="shared" ref="O14:W14" si="13">AVERAGE(O11:O13)</f>
-        <v>121.73333333333333</v>
+        <v>121.10000000000001</v>
       </c>
       <c r="P14">
         <f t="shared" si="13"/>
-        <v>316.65666666666669</v>
+        <v>310.63333333333333</v>
       </c>
       <c r="Q14">
         <f t="shared" si="13"/>
-        <v>306.46666666666664</v>
+        <v>288.63333333333333</v>
       </c>
       <c r="R14">
         <f t="shared" si="13"/>
-        <v>304.09999999999997</v>
+        <v>268.0333333333333</v>
       </c>
       <c r="S14">
         <f t="shared" si="13"/>
-        <v>295.96666666666664</v>
+        <v>266.46666666666664</v>
       </c>
       <c r="T14">
         <f t="shared" si="13"/>
-        <v>109.7</v>
+        <v>56.199999999999996</v>
       </c>
       <c r="U14">
         <f t="shared" si="13"/>
-        <v>121.26666666666667</v>
+        <v>56.966666666666669</v>
       </c>
       <c r="V14">
         <f t="shared" si="13"/>
-        <v>100.23333333333333</v>
+        <v>46.033333333333339</v>
       </c>
       <c r="W14">
         <f t="shared" si="13"/>
-        <v>114.26666666666667</v>
+        <v>57.79999999999999</v>
       </c>
     </row>
     <row r="15" spans="1:23" x14ac:dyDescent="0.3">
@@ -5718,35 +5718,35 @@
       </c>
       <c r="P15">
         <f t="shared" ref="P15:W15" si="22">140/P14</f>
-        <v>0.44211922481762578</v>
+        <v>0.4506921343491791</v>
       </c>
       <c r="Q15">
         <f t="shared" si="22"/>
-        <v>0.45681966499891236</v>
+        <v>0.48504446240905419</v>
       </c>
       <c r="R15">
         <f t="shared" si="22"/>
-        <v>0.46037487668530092</v>
+        <v>0.52232309414251965</v>
       </c>
       <c r="S15">
         <f t="shared" si="22"/>
-        <v>0.47302624169388446</v>
+        <v>0.5253940455341507</v>
       </c>
       <c r="T15">
         <f t="shared" si="22"/>
-        <v>1.276207839562443</v>
+        <v>2.4911032028469751</v>
       </c>
       <c r="U15">
         <f t="shared" si="22"/>
-        <v>1.154480483782298</v>
+        <v>2.457577530719719</v>
       </c>
       <c r="V15">
         <f t="shared" si="22"/>
-        <v>1.3967409378117726</v>
+        <v>3.0412744388124544</v>
       </c>
       <c r="W15">
         <f t="shared" si="22"/>
-        <v>1.2252042007001167</v>
+        <v>2.4221453287197234</v>
       </c>
     </row>
   </sheetData>
